--- a/correlation/peugeot/minutely/correlation/peugeot_correlation_volume_with_semantics.xlsx
+++ b/correlation/peugeot/minutely/correlation/peugeot_correlation_volume_with_semantics.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00528246757120042</v>
+        <v>0.006222645308729205</v>
       </c>
       <c r="D2">
-        <v>0.003313738433073699</v>
+        <v>0.003655781413512294</v>
       </c>
       <c r="E2">
-        <v>0.003377744628494508</v>
+        <v>0.002624821599591511</v>
       </c>
       <c r="F2">
-        <v>0.002935385079702466</v>
+        <v>0.003836165138364061</v>
       </c>
       <c r="G2">
-        <v>0.002293718827547636</v>
+        <v>0.003265679746318712</v>
       </c>
       <c r="H2">
-        <v>0.0006523799213093227</v>
+        <v>0.004008306264524951</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00528246757120042</v>
+        <v>0.006222645308729205</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7407250606213548</v>
+        <v>0.5810959359026042</v>
       </c>
       <c r="E3">
-        <v>0.4447874148513927</v>
+        <v>0.1916706143058038</v>
       </c>
       <c r="F3">
-        <v>0.02631649225182815</v>
+        <v>-0.2486934846723812</v>
       </c>
       <c r="G3">
-        <v>0.2937599632765478</v>
+        <v>0.1671930957783708</v>
       </c>
       <c r="H3">
-        <v>-0.2491758797708608</v>
+        <v>-0.3039781026455292</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003313738433073699</v>
+        <v>0.003655781413512294</v>
       </c>
       <c r="C4">
-        <v>0.7407250606213548</v>
+        <v>0.5810959359026042</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>-0.1579624058787773</v>
+        <v>0.05944429886098729</v>
       </c>
       <c r="F4">
-        <v>-0.4099760432390078</v>
+        <v>-0.462908435311578</v>
       </c>
       <c r="G4">
-        <v>-0.412827243578512</v>
+        <v>-0.06657952504654273</v>
       </c>
       <c r="H4">
-        <v>-0.4134095493339859</v>
+        <v>-0.1791114336117105</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003377744628494508</v>
+        <v>0.002624821599591511</v>
       </c>
       <c r="C5">
-        <v>0.4447874148513927</v>
+        <v>0.1916706143058038</v>
       </c>
       <c r="D5">
-        <v>-0.1579624058787773</v>
+        <v>0.05944429886098729</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.4921395309687679</v>
+        <v>0.3318564934237573</v>
       </c>
       <c r="G5">
-        <v>0.8280295479983174</v>
+        <v>0.5515363511659818</v>
       </c>
       <c r="H5">
-        <v>0.1314742925155184</v>
+        <v>0.02052231294981035</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.002935385079702466</v>
+        <v>0.003836165138364061</v>
       </c>
       <c r="C6">
-        <v>0.02631649225182815</v>
+        <v>-0.2486934846723812</v>
       </c>
       <c r="D6">
-        <v>-0.4099760432390078</v>
+        <v>-0.462908435311578</v>
       </c>
       <c r="E6">
-        <v>0.4921395309687679</v>
+        <v>0.3318564934237573</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5864933056948595</v>
+        <v>0.2959570112670918</v>
       </c>
       <c r="H6">
-        <v>0.8173628055678203</v>
+        <v>0.557872295064242</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.002293718827547636</v>
+        <v>0.003265679746318712</v>
       </c>
       <c r="C7">
-        <v>0.2937599632765478</v>
+        <v>0.1671930957783708</v>
       </c>
       <c r="D7">
-        <v>-0.412827243578512</v>
+        <v>-0.06657952504654273</v>
       </c>
       <c r="E7">
-        <v>0.8280295479983174</v>
+        <v>0.5515363511659818</v>
       </c>
       <c r="F7">
-        <v>0.5864933056948595</v>
+        <v>0.2959570112670918</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.210394364005702</v>
+        <v>0.2804070569551801</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0006523799213093227</v>
+        <v>0.004008306264524951</v>
       </c>
       <c r="C8">
-        <v>-0.2491758797708608</v>
+        <v>-0.3039781026455292</v>
       </c>
       <c r="D8">
-        <v>-0.4134095493339859</v>
+        <v>-0.1791114336117105</v>
       </c>
       <c r="E8">
-        <v>0.1314742925155184</v>
+        <v>0.02052231294981035</v>
       </c>
       <c r="F8">
-        <v>0.8173628055678203</v>
+        <v>0.557872295064242</v>
       </c>
       <c r="G8">
-        <v>0.210394364005702</v>
+        <v>0.2804070569551801</v>
       </c>
       <c r="H8">
         <v>1</v>
